--- a/ram lenovo.xlsx
+++ b/ram lenovo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stef\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stef\Desktop\powerhouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -144,8 +144,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,298 +431,301 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="69.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>3200</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>480</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>568</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>360</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>408</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>304</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>336</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>488</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>400</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>1296</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>1024</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>544</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>32</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>424</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>904</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>160</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>88</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>160</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>408</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>904</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>48</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>1480</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>64</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>288</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>1</v>
       </c>
     </row>
